--- a/table_definition/merged_view_definition.xlsx
+++ b/table_definition/merged_view_definition.xlsx
@@ -556,7 +556,11 @@
           <t>データが取得された日時</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-03-25 10:32:21.704 +0900</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -612,7 +616,11 @@
           <t>ページを一意に識別するID</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1c14d137-e7fe-80c5-a3bc-e22668c6298f</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -668,7 +676,11 @@
           <t>処理やイベントの継続時間（分）</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -724,7 +736,11 @@
           <t>状態やステータスの情報</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -780,7 +796,11 @@
           <t>プロジェクトを識別するタグ</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>KDDI</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -836,7 +856,11 @@
           <t>作業やタスクを識別するタグ</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>定例</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -892,7 +916,11 @@
           <t>処理または作業の開始時刻</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-03-25 10:00:00.000 +0900</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -948,7 +976,11 @@
           <t>処理または作業の終了時刻</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-03-25 11:00:00.000 +0900</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1000,7 +1032,11 @@
           <t>期日、または締め切りの日付</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1056,7 +1092,11 @@
           <t>Notion上のリソースURL</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/1c14d137e7fe80c5a3bce22668c6298f</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1112,7 +1152,11 @@
           <t>レコードの作成日時</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-03-25 01:10:00.000 Z</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1168,7 +1212,11 @@
           <t>最終更新日時</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-03-25 01:30:00.000 Z</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
